--- a/experiments/preference_for_angles.xlsx
+++ b/experiments/preference_for_angles.xlsx
@@ -100,12 +100,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -122,14 +126,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B3:M14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4:L13"/>
+      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -171,34 +175,34 @@
       <c r="B4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="0" t="n">
+      <c r="C4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="M4" s="1" t="n">
@@ -210,34 +214,34 @@
       <c r="B5" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="C5" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I5" s="0" t="n">
+      <c r="H5" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="2" t="n">
         <v>8</v>
       </c>
       <c r="M5" s="1" t="n">
@@ -249,34 +253,34 @@
       <c r="B6" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="H6" s="0" t="n">
+      <c r="G6" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="J6" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="J6" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="K6" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="M6" s="1" t="n">
@@ -288,34 +292,34 @@
       <c r="B7" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="D7" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="M7" s="1" t="n">
@@ -327,34 +331,34 @@
       <c r="B8" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="F8" s="0" t="n">
+      <c r="E8" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="K8" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="L8" s="0" t="n">
+      <c r="K8" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="L8" s="2" t="n">
         <v>14</v>
       </c>
       <c r="M8" s="1" t="n">
@@ -366,34 +370,34 @@
       <c r="B9" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" s="0" t="n">
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2" t="n">
         <v>3</v>
       </c>
       <c r="M9" s="1" t="n">
@@ -405,34 +409,34 @@
       <c r="B10" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="0" t="n">
+      <c r="C10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="n">
         <v>2</v>
       </c>
       <c r="M10" s="1" t="n">
@@ -444,34 +448,34 @@
       <c r="B11" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L11" s="0" t="n">
+      <c r="C11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="1" t="n">
@@ -483,34 +487,34 @@
       <c r="B12" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="0" t="n">
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M12" s="1" t="n">
@@ -522,34 +526,34 @@
       <c r="B13" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="0" t="n">
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="n">
         <v>2</v>
       </c>
       <c r="M13" s="1" t="n">
@@ -616,14 +620,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C4:L13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -639,14 +643,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C4:L13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/experiments/preference_for_angles.xlsx
+++ b/experiments/preference_for_angles.xlsx
@@ -130,53 +130,53 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:M14"/>
+  <dimension ref="B3:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+  </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>320</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>3</v>
@@ -202,20 +202,17 @@
       <c r="K4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <f aca="false">SUM(C4:L4)</f>
+      <c r="L4" s="1" t="n">
+        <f aca="false">SUM(C4:K4)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="n">
         <v>20</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>9</v>
@@ -241,20 +238,17 @@
       <c r="K5" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="L5" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <f aca="false">SUM(C5:L5)</f>
+      <c r="L5" s="1" t="n">
+        <f aca="false">SUM(C5:K5)</f>
         <v>122</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="n">
         <v>40</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>19</v>
@@ -280,20 +274,17 @@
       <c r="K6" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="L6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <f aca="false">SUM(C6:L6)</f>
+      <c r="L6" s="1" t="n">
+        <f aca="false">SUM(C6:K6)</f>
         <v>107</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="n">
         <v>60</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>9</v>
@@ -319,20 +310,17 @@
       <c r="K7" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="L7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <f aca="false">SUM(C7:L7)</f>
+      <c r="L7" s="1" t="n">
+        <f aca="false">SUM(C7:K7)</f>
         <v>103</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="n">
         <v>80</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>14</v>
@@ -358,20 +346,17 @@
       <c r="K8" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="L8" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <f aca="false">SUM(C8:L8)</f>
+      <c r="L8" s="1" t="n">
+        <f aca="false">SUM(C8:K8)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="n">
         <v>100</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>3</v>
@@ -397,20 +382,17 @@
       <c r="K9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="L9" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <f aca="false">SUM(C9:L9)</f>
+      <c r="L9" s="1" t="n">
+        <f aca="false">SUM(C9:K9)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="n">
         <v>120</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>1</v>
@@ -436,15 +418,12 @@
       <c r="K10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <f aca="false">SUM(C10:L10)</f>
+      <c r="L10" s="1" t="n">
+        <f aca="false">SUM(C10:K10)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="n">
         <v>140</v>
       </c>
@@ -475,15 +454,12 @@
       <c r="K11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="L11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <f aca="false">SUM(C11:L11)</f>
+      <c r="L11" s="1" t="n">
+        <f aca="false">SUM(C11:K11)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="n">
         <v>160</v>
       </c>
@@ -514,20 +490,17 @@
       <c r="K12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <f aca="false">SUM(C12:L12)</f>
+      <c r="L12" s="1" t="n">
+        <f aca="false">SUM(C12:K12)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="n">
         <v>180</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
@@ -553,19 +526,16 @@
       <c r="K13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <f aca="false">SUM(C13:L13)</f>
+      <c r="L13" s="1" t="n">
+        <f aca="false">SUM(C13:K13)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="n">
         <f aca="false">SUM(C4:C13)</f>
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">SUM(D4:D13)</f>
@@ -601,10 +571,6 @@
       </c>
       <c r="L14" s="1" t="n">
         <f aca="false">SUM(L4:L13)</f>
-        <v>42</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <f aca="false">SUM(M4:M13)</f>
         <v>527</v>
       </c>
     </row>
